--- a/tests/data.gui/test/concentrations/ds.3p.2eq/xlsx/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p.2eq/xlsx/kev.concentrations.data.xlsx
@@ -9,10 +9,11 @@
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equilibrium_concentrations" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="L_fractions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="percent_error" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="component_names" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="L_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -661,106 +662,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01</v>
+        <v>0.0282807977164644</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00132432681576294</v>
+        <v>0.02</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.0182807989767081</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.000373246009296208</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.08140991217461e-05</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.25892541179417e-09</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.3182567385564e-12</v>
+        <v>0.0103840613673434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001</v>
+        <v>0.0110324008139916</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00726784104519944</v>
+        <v>0.02</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.0100324134164283</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00204835591489333</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00032569481189138</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.25892541179417e-08</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.3182567385564e-11</v>
+        <v>0.0123740633160388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1e-04</v>
+        <v>0.00114136198682271</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00754445766750736</v>
+        <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.00104142506491898</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0010631585357875</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.000175479365893397</v>
-      </c>
-      <c r="G4" t="n">
-        <v>6.29462705897084e-08</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1.3182567385564e-10</v>
+        <v>0.00623870084795149</v>
       </c>
     </row>
   </sheetData>
@@ -779,13 +720,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
         <v>14</v>
@@ -796,65 +737,89 @@
       <c r="F1" t="s">
         <v>16</v>
       </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
+      <c r="A2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.00132432681576294</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0182807989767081</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000373246009296208</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.08140991217461e-05</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.25892541179417e-09</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.3182567385564e-12</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
+      <c r="A3" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.00726784104519944</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0100324134164283</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00204835591489333</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.00032569481189138</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.25892541179417e-08</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.3182567385564e-11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
+      <c r="A4" t="n">
+        <v>1e-04</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.00754445766750736</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00104142506491898</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0010631585357875</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.000175479365893397</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.29462705897084e-08</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.3182567385564e-10</v>
       </c>
     </row>
   </sheetData>
@@ -873,46 +838,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>5.36896915814822e-13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1.51914938961717e-11</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>6.31439345255558e-14</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -931,6 +932,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>5.36896915814822e-13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.51914938961717e-11</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6.31439345255558e-14</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/tests/data.gui/test/concentrations/ds.3p.2eq/xlsx/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p.2eq/xlsx/kev.concentrations.data.xlsx
@@ -761,13 +761,13 @@
         <v>0.000373246009296208</v>
       </c>
       <c r="F2" t="n">
-        <v>1.08140991217461e-05</v>
+        <v>0.0000108140991217461</v>
       </c>
       <c r="G2" t="n">
-        <v>1.25892541179417e-09</v>
+        <v>0.00000000125892541179417</v>
       </c>
       <c r="H2" t="n">
-        <v>1.3182567385564e-12</v>
+        <v>0.0000000000013182567385564</v>
       </c>
     </row>
     <row r="3">
@@ -790,15 +790,15 @@
         <v>0.00032569481189138</v>
       </c>
       <c r="G3" t="n">
-        <v>1.25892541179417e-08</v>
+        <v>0.0000000125892541179417</v>
       </c>
       <c r="H3" t="n">
-        <v>1.3182567385564e-11</v>
+        <v>0.000000000013182567385564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1e-04</v>
+        <v>0.0001</v>
       </c>
       <c r="B4" t="n">
         <v>0.00754445766750736</v>
@@ -816,10 +816,10 @@
         <v>0.000175479365893397</v>
       </c>
       <c r="G4" t="n">
-        <v>6.29462705897084e-08</v>
+        <v>0.0000000629462705897084</v>
       </c>
       <c r="H4" t="n">
-        <v>1.3182567385564e-10</v>
+        <v>0.00000000013182567385564</v>
       </c>
     </row>
   </sheetData>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.36896915814822e-13</v>
+        <v>0.000000000000536896915814822</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.51914938961717e-11</v>
+        <v>0.0000000000151916673685193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6.31439345255558e-14</v>
+        <v>0.0000000000000631439345255558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
